--- a/data/Spreadsheet_Data/BookEdition.xlsx
+++ b/data/Spreadsheet_Data/BookEdition.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D37307B-688F-2646-90E3-63BC5E2CF59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3E952F-762E-6A44-8D78-CC2B5EA27138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="34560" windowHeight="19020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="51700" windowHeight="29580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -60,9 +60,6 @@
     <t>BookVirtual Corp. U.S. Patent Pending.</t>
   </si>
   <si>
-    <t>CC0 1.0</t>
-  </si>
-  <si>
     <t>data/Multimedia_Data/Book/</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>https://archive.org/details/alicesadventur00carr</t>
+  </si>
+  <si>
+    <t>Public Domain</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -484,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -493,7 +493,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.15">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4">
         <v>2000</v>
@@ -512,148 +512,148 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4">
         <v>1902</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
+      <c r="J3" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4">
         <v>1872</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
+      <c r="J4" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4">
         <v>1901</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4">
         <v>1866</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -664,6 +664,10 @@
     <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="J5" r:id="rId6" xr:uid="{04E93225-CBEC-2B42-AFF3-EEA0AD2C33A8}"/>
+    <hyperlink ref="J2" r:id="rId7" xr:uid="{24D8CD30-8076-E84B-B031-3AED59809D8A}"/>
+    <hyperlink ref="J3" r:id="rId8" xr:uid="{9A8BB1D2-8643-E040-B4D0-9A346938090F}"/>
+    <hyperlink ref="J4" r:id="rId9" xr:uid="{C26C83DE-F6C3-854C-B584-C45D24CA8566}"/>
+    <hyperlink ref="J6" r:id="rId10" xr:uid="{032AF3D9-469E-D844-8C61-599319CBA9B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
